--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="451">
   <si>
     <t>PROJECT_ID</t>
   </si>
@@ -39,6 +39,1347 @@
   </si>
   <si>
     <t>Status To Be</t>
+  </si>
+  <si>
+    <t>24KT10R529-0001</t>
+  </si>
+  <si>
+    <t>BAST</t>
+  </si>
+  <si>
+    <t>24KT10R529-0003</t>
+  </si>
+  <si>
+    <t>24KT32R426-0004</t>
+  </si>
+  <si>
+    <t>24KT32R426-0005</t>
+  </si>
+  <si>
+    <t>24KT32R426-0009</t>
+  </si>
+  <si>
+    <t>24MC34R161-0051</t>
+  </si>
+  <si>
+    <t>24MC34R161-0052</t>
+  </si>
+  <si>
+    <t>24MC34R161-0053</t>
+  </si>
+  <si>
+    <t>24KT32R161-0028</t>
+  </si>
+  <si>
+    <t>24KT32R529-0043</t>
+  </si>
+  <si>
+    <t>24KT32R753-0013</t>
+  </si>
+  <si>
+    <t>24KT32R753-0009</t>
+  </si>
+  <si>
+    <t>24KT32R426-0002</t>
+  </si>
+  <si>
+    <t>24KT03R547-0349</t>
+  </si>
+  <si>
+    <t>24KT03R547-0359</t>
+  </si>
+  <si>
+    <t>24KT03R547-0353</t>
+  </si>
+  <si>
+    <t>24KT03R547-0493</t>
+  </si>
+  <si>
+    <t>24KT03R547-0488</t>
+  </si>
+  <si>
+    <t>24KT03R547-0355</t>
+  </si>
+  <si>
+    <t>24KT03R547-0504</t>
+  </si>
+  <si>
+    <t>24KT07R547-0085</t>
+  </si>
+  <si>
+    <t>24KT03R547-0377</t>
+  </si>
+  <si>
+    <t>24KT03R547-0376</t>
+  </si>
+  <si>
+    <t>24KT03R547-0525</t>
+  </si>
+  <si>
+    <t>24KT03R547-0526</t>
+  </si>
+  <si>
+    <t>24KT03R547-0372</t>
+  </si>
+  <si>
+    <t>24KT03R547-0389</t>
+  </si>
+  <si>
+    <t>24KT03R547-0386</t>
+  </si>
+  <si>
+    <t>24KT03R547-0390</t>
+  </si>
+  <si>
+    <t>24KT03R547-0404</t>
+  </si>
+  <si>
+    <t>24KT03R547-0405</t>
+  </si>
+  <si>
+    <t>24KT03R547-0535</t>
+  </si>
+  <si>
+    <t>24KT03R547-0395</t>
+  </si>
+  <si>
+    <t>24KT03R547-0532</t>
+  </si>
+  <si>
+    <t>24KT03R547-0530</t>
+  </si>
+  <si>
+    <t>24KT07R547-0087</t>
+  </si>
+  <si>
+    <t>24KT03R547-0545</t>
+  </si>
+  <si>
+    <t>24KT07R547-0089</t>
+  </si>
+  <si>
+    <t>24KT03R547-0555</t>
+  </si>
+  <si>
+    <t>24KT03R547-0410</t>
+  </si>
+  <si>
+    <t>24KT03R547-0424</t>
+  </si>
+  <si>
+    <t>24KT03R547-0551</t>
+  </si>
+  <si>
+    <t>24KT03R547-0550</t>
+  </si>
+  <si>
+    <t>24KT03R547-0558</t>
+  </si>
+  <si>
+    <t>24KT03R547-0568</t>
+  </si>
+  <si>
+    <t>24KT03R547-0433</t>
+  </si>
+  <si>
+    <t>24KT03R547-0570</t>
+  </si>
+  <si>
+    <t>24KT03R547-0574</t>
+  </si>
+  <si>
+    <t>24KT07R547-0061</t>
+  </si>
+  <si>
+    <t>24KT03R547-0584</t>
+  </si>
+  <si>
+    <t>24KT03R547-0583</t>
+  </si>
+  <si>
+    <t>24KT03R547-0580</t>
+  </si>
+  <si>
+    <t>24KT03R547-0579</t>
+  </si>
+  <si>
+    <t>24KT03R547-0577</t>
+  </si>
+  <si>
+    <t>24KT03R547-0457</t>
+  </si>
+  <si>
+    <t>24KT03R547-0460</t>
+  </si>
+  <si>
+    <t>24KT03R547-0458</t>
+  </si>
+  <si>
+    <t>24KT03R547-0456</t>
+  </si>
+  <si>
+    <t>24KT03R547-0602</t>
+  </si>
+  <si>
+    <t>24KT03R547-0330</t>
+  </si>
+  <si>
+    <t>24KT03R547-0463</t>
+  </si>
+  <si>
+    <t>24KT03R547-0448</t>
+  </si>
+  <si>
+    <t>24KT03R547-0474</t>
+  </si>
+  <si>
+    <t>24KT03R547-0606</t>
+  </si>
+  <si>
+    <t>24KT03R547-0605</t>
+  </si>
+  <si>
+    <t>24KT03R547-0603</t>
+  </si>
+  <si>
+    <t>24KT03R547-0591</t>
+  </si>
+  <si>
+    <t>24KT03R547-0595</t>
+  </si>
+  <si>
+    <t>24KT03R547-0599</t>
+  </si>
+  <si>
+    <t>24KT07R547-0063</t>
+  </si>
+  <si>
+    <t>24KT03R547-0594</t>
+  </si>
+  <si>
+    <t>24KT03R547-0593</t>
+  </si>
+  <si>
+    <t>24KT07R547-0090</t>
+  </si>
+  <si>
+    <t>24KT07R547-0073</t>
+  </si>
+  <si>
+    <t>24KT07R547-0074</t>
+  </si>
+  <si>
+    <t>24KT07R547-0075</t>
+  </si>
+  <si>
+    <t>24KT03R547-0343</t>
+  </si>
+  <si>
+    <t>24KT07R547-0049</t>
+  </si>
+  <si>
+    <t>24KT07R547-0051</t>
+  </si>
+  <si>
+    <t>24KT03R547-0176</t>
+  </si>
+  <si>
+    <t>24KT07R547-0054</t>
+  </si>
+  <si>
+    <t>24KT07R547-0055</t>
+  </si>
+  <si>
+    <t>24KT03R547-0237</t>
+  </si>
+  <si>
+    <t>23KT08R161-0056</t>
+  </si>
+  <si>
+    <t>24KT03R144-0145</t>
+  </si>
+  <si>
+    <t>24KT07R161-0119</t>
+  </si>
+  <si>
+    <t>22KT07R161-0025</t>
+  </si>
+  <si>
+    <t>23KT07R161-0184</t>
+  </si>
+  <si>
+    <t>23KT07R161-0204</t>
+  </si>
+  <si>
+    <t>24KT07R161-0146</t>
+  </si>
+  <si>
+    <t>24KT08R161-0058</t>
+  </si>
+  <si>
+    <t>24KT08R161-0063</t>
+  </si>
+  <si>
+    <t>24KT08R161-0059</t>
+  </si>
+  <si>
+    <t>24MC41R161-0293</t>
+  </si>
+  <si>
+    <t>24KT03R161-0264</t>
+  </si>
+  <si>
+    <t>24KT03R161-0038</t>
+  </si>
+  <si>
+    <t>24KT03R161-0272</t>
+  </si>
+  <si>
+    <t>24KT03R161-0276</t>
+  </si>
+  <si>
+    <t>24KT07R161-0025</t>
+  </si>
+  <si>
+    <t>23KT03R161-0209</t>
+  </si>
+  <si>
+    <t>24KT03R161-0040</t>
+  </si>
+  <si>
+    <t>24MC41R161-0556</t>
+  </si>
+  <si>
+    <t>24KT03R161-0480</t>
+  </si>
+  <si>
+    <t>24KT03R161-0470</t>
+  </si>
+  <si>
+    <t>24KT03R161-0478</t>
+  </si>
+  <si>
+    <t>24MC41R161-0554</t>
+  </si>
+  <si>
+    <t>24MC41R161-0555</t>
+  </si>
+  <si>
+    <t>24KT03R161-0476</t>
+  </si>
+  <si>
+    <t>24KT03R161-0474</t>
+  </si>
+  <si>
+    <t>24MC41R161-0689</t>
+  </si>
+  <si>
+    <t>24MC41R161-0553</t>
+  </si>
+  <si>
+    <t>24KT08R161-0096</t>
+  </si>
+  <si>
+    <t>24MC41R161-0676</t>
+  </si>
+  <si>
+    <t>24MC41R161-0685</t>
+  </si>
+  <si>
+    <t>24MC41R161-0671</t>
+  </si>
+  <si>
+    <t>24MC41R161-0495</t>
+  </si>
+  <si>
+    <t>24MC41R161-0452</t>
+  </si>
+  <si>
+    <t>24KT07R161-0190</t>
+  </si>
+  <si>
+    <t>24KT08R161-0092</t>
+  </si>
+  <si>
+    <t>24KT08R161-0095</t>
+  </si>
+  <si>
+    <t>24KT08R161-0093</t>
+  </si>
+  <si>
+    <t>24KT08R161-0094</t>
+  </si>
+  <si>
+    <t>24KT03R161-0419</t>
+  </si>
+  <si>
+    <t>24KT03R161-0418</t>
+  </si>
+  <si>
+    <t>24MC41R161-0593</t>
+  </si>
+  <si>
+    <t>24MC41R161-0592</t>
+  </si>
+  <si>
+    <t>24MC41R161-0587</t>
+  </si>
+  <si>
+    <t>24MC41R161-0586</t>
+  </si>
+  <si>
+    <t>24MC41R161-0582</t>
+  </si>
+  <si>
+    <t>24MC41R161-0698</t>
+  </si>
+  <si>
+    <t>24MC41R161-0497</t>
+  </si>
+  <si>
+    <t>24MC41R161-0499</t>
+  </si>
+  <si>
+    <t>24MC41R161-0501</t>
+  </si>
+  <si>
+    <t>24MC41R161-0502</t>
+  </si>
+  <si>
+    <t>24MC41R161-0580</t>
+  </si>
+  <si>
+    <t>24MC41R161-0585</t>
+  </si>
+  <si>
+    <t>24MC41R161-0568</t>
+  </si>
+  <si>
+    <t>24MC41R161-0701</t>
+  </si>
+  <si>
+    <t>24MC41R161-0706</t>
+  </si>
+  <si>
+    <t>24MC41R161-0707</t>
+  </si>
+  <si>
+    <t>24MC41R161-0702</t>
+  </si>
+  <si>
+    <t>24MC41R161-0703</t>
+  </si>
+  <si>
+    <t>24MC41R161-0705</t>
+  </si>
+  <si>
+    <t>24MC41R161-0708</t>
+  </si>
+  <si>
+    <t>24MC41R161-0712</t>
+  </si>
+  <si>
+    <t>24MC41R161-0504</t>
+  </si>
+  <si>
+    <t>24MC41R161-0503</t>
+  </si>
+  <si>
+    <t>24MC41R161-0571</t>
+  </si>
+  <si>
+    <t>24MC41R161-0569</t>
+  </si>
+  <si>
+    <t>24MC41R161-0575</t>
+  </si>
+  <si>
+    <t>24MC41R161-0574</t>
+  </si>
+  <si>
+    <t>24MC41R161-0572</t>
+  </si>
+  <si>
+    <t>24MC41R161-0566</t>
+  </si>
+  <si>
+    <t>24MC41R161-0565</t>
+  </si>
+  <si>
+    <t>24MC41R161-0564</t>
+  </si>
+  <si>
+    <t>24MC41R161-0563</t>
+  </si>
+  <si>
+    <t>24MC17R161-0007</t>
+  </si>
+  <si>
+    <t>23KT07R161-0286</t>
+  </si>
+  <si>
+    <t>24MC41R161-0509</t>
+  </si>
+  <si>
+    <t>24MC41R161-0512</t>
+  </si>
+  <si>
+    <t>24MC41R161-0513</t>
+  </si>
+  <si>
+    <t>24MC41R161-0514</t>
+  </si>
+  <si>
+    <t>24KT03R161-0422</t>
+  </si>
+  <si>
+    <t>24KT03R161-0484</t>
+  </si>
+  <si>
+    <t>24MC41R161-0718</t>
+  </si>
+  <si>
+    <t>24MC41R161-0720</t>
+  </si>
+  <si>
+    <t>24MC41R161-0721</t>
+  </si>
+  <si>
+    <t>24MC41R161-0730</t>
+  </si>
+  <si>
+    <t>24MC41R161-0517</t>
+  </si>
+  <si>
+    <t>24MC41R161-0519</t>
+  </si>
+  <si>
+    <t>24MC41R161-0507</t>
+  </si>
+  <si>
+    <t>24MC41R161-0605</t>
+  </si>
+  <si>
+    <t>24MC41R161-0609</t>
+  </si>
+  <si>
+    <t>24MC41R161-0608</t>
+  </si>
+  <si>
+    <t>24MC41R161-0734</t>
+  </si>
+  <si>
+    <t>24MC41R161-0735</t>
+  </si>
+  <si>
+    <t>24MC41R161-0521</t>
+  </si>
+  <si>
+    <t>24MC41R161-0522</t>
+  </si>
+  <si>
+    <t>24MC41R161-0525</t>
+  </si>
+  <si>
+    <t>24MC41R161-0527</t>
+  </si>
+  <si>
+    <t>24MC41R161-0616</t>
+  </si>
+  <si>
+    <t>24MC41R161-0615</t>
+  </si>
+  <si>
+    <t>24MC41R161-0613</t>
+  </si>
+  <si>
+    <t>24MC41R161-0740</t>
+  </si>
+  <si>
+    <t>24MC41R161-0742</t>
+  </si>
+  <si>
+    <t>24MC41R161-0753</t>
+  </si>
+  <si>
+    <t>24MC41R161-0470</t>
+  </si>
+  <si>
+    <t>24MC41R161-0467</t>
+  </si>
+  <si>
+    <t>24MC41R161-0471</t>
+  </si>
+  <si>
+    <t>24MC41R161-0528</t>
+  </si>
+  <si>
+    <t>24MC41R161-0530</t>
+  </si>
+  <si>
+    <t>24MC41R161-0667</t>
+  </si>
+  <si>
+    <t>24MC41R161-0758</t>
+  </si>
+  <si>
+    <t>24MC41R161-0757</t>
+  </si>
+  <si>
+    <t>24MC41R161-0756</t>
+  </si>
+  <si>
+    <t>24MC41R161-0754</t>
+  </si>
+  <si>
+    <t>24MC41R161-0763</t>
+  </si>
+  <si>
+    <t>24MC41R161-0762</t>
+  </si>
+  <si>
+    <t>24MC41R161-0772</t>
+  </si>
+  <si>
+    <t>24MC41R161-0771</t>
+  </si>
+  <si>
+    <t>24MC41R161-0469</t>
+  </si>
+  <si>
+    <t>24MC41R161-0472</t>
+  </si>
+  <si>
+    <t>24MC41R161-0473</t>
+  </si>
+  <si>
+    <t>24MC41R161-0474</t>
+  </si>
+  <si>
+    <t>24MC41R161-0627</t>
+  </si>
+  <si>
+    <t>24MC41R161-0767</t>
+  </si>
+  <si>
+    <t>24MC41R161-0766</t>
+  </si>
+  <si>
+    <t>24MC41R161-0765</t>
+  </si>
+  <si>
+    <t>24MC41R161-0781</t>
+  </si>
+  <si>
+    <t>24MC41R161-0785</t>
+  </si>
+  <si>
+    <t>24MC41R161-0782</t>
+  </si>
+  <si>
+    <t>24MC41R161-0476</t>
+  </si>
+  <si>
+    <t>24MC41R161-0477</t>
+  </si>
+  <si>
+    <t>24MC41R161-0479</t>
+  </si>
+  <si>
+    <t>24MC41R161-0480</t>
+  </si>
+  <si>
+    <t>24MC41R161-0531</t>
+  </si>
+  <si>
+    <t>24MC41R161-0532</t>
+  </si>
+  <si>
+    <t>24MC41R161-0533</t>
+  </si>
+  <si>
+    <t>24MC41R161-0535</t>
+  </si>
+  <si>
+    <t>24MC41R161-0536</t>
+  </si>
+  <si>
+    <t>24MC41R161-0777</t>
+  </si>
+  <si>
+    <t>24KT03R161-0494</t>
+  </si>
+  <si>
+    <t>24KT03R161-0497</t>
+  </si>
+  <si>
+    <t>24KT07R161-0030</t>
+  </si>
+  <si>
+    <t>24MC41R161-0483</t>
+  </si>
+  <si>
+    <t>24MC41R161-0482</t>
+  </si>
+  <si>
+    <t>24MC41R161-0484</t>
+  </si>
+  <si>
+    <t>24MC41R161-0485</t>
+  </si>
+  <si>
+    <t>24MC41R161-0486</t>
+  </si>
+  <si>
+    <t>24MC41R161-0542</t>
+  </si>
+  <si>
+    <t>24MC41R161-0540</t>
+  </si>
+  <si>
+    <t>24MC41R161-0487</t>
+  </si>
+  <si>
+    <t>24MC41R161-0488</t>
+  </si>
+  <si>
+    <t>24MC41R161-0491</t>
+  </si>
+  <si>
+    <t>24MC41R161-0489</t>
+  </si>
+  <si>
+    <t>24MC41R161-0490</t>
+  </si>
+  <si>
+    <t>24KT03R161-0447</t>
+  </si>
+  <si>
+    <t>24KT07R161-0029</t>
+  </si>
+  <si>
+    <t>24MC41R161-0662</t>
+  </si>
+  <si>
+    <t>24MC41R161-0660</t>
+  </si>
+  <si>
+    <t>24MC41R161-0551</t>
+  </si>
+  <si>
+    <t>24MC41R161-0545</t>
+  </si>
+  <si>
+    <t>24MC41R161-0548</t>
+  </si>
+  <si>
+    <t>24MC41R161-0549</t>
+  </si>
+  <si>
+    <t>24MC41R161-0550</t>
+  </si>
+  <si>
+    <t>24MC41R161-0546</t>
+  </si>
+  <si>
+    <t>24MC41R161-0544</t>
+  </si>
+  <si>
+    <t>24MC41R161-0649</t>
+  </si>
+  <si>
+    <t>24MC41R161-0640</t>
+  </si>
+  <si>
+    <t>24MC41R161-0637</t>
+  </si>
+  <si>
+    <t>24KT07R161-0044</t>
+  </si>
+  <si>
+    <t>24KT07R161-0070</t>
+  </si>
+  <si>
+    <t>24KT07R161-0040</t>
+  </si>
+  <si>
+    <t>24KT07R161-0057</t>
+  </si>
+  <si>
+    <t>24KT07R161-0054</t>
+  </si>
+  <si>
+    <t>22KT03R161-0209</t>
+  </si>
+  <si>
+    <t>23KT08R161-0050</t>
+  </si>
+  <si>
+    <t>24KT03R101-0531</t>
+  </si>
+  <si>
+    <t>24KT03R101-0529</t>
+  </si>
+  <si>
+    <t>24KT03R101-0524</t>
+  </si>
+  <si>
+    <t>24KT03R101-0538</t>
+  </si>
+  <si>
+    <t>24KT03R101-0464</t>
+  </si>
+  <si>
+    <t>24MC41R101-0030</t>
+  </si>
+  <si>
+    <t>24KT03R101-0397</t>
+  </si>
+  <si>
+    <t>24KT03R101-0247</t>
+  </si>
+  <si>
+    <t>24KT08R101-0117</t>
+  </si>
+  <si>
+    <t>24KT08R101-0115</t>
+  </si>
+  <si>
+    <t>24KT03R108-0058</t>
+  </si>
+  <si>
+    <t>24KT03R108-0124</t>
+  </si>
+  <si>
+    <t>24KT03R108-0123</t>
+  </si>
+  <si>
+    <t>24KT03R108-0122</t>
+  </si>
+  <si>
+    <t>24KT03R108-0149</t>
+  </si>
+  <si>
+    <t>24KT03R108-0161</t>
+  </si>
+  <si>
+    <t>24KT03R108-0160</t>
+  </si>
+  <si>
+    <t>24KT03R108-0166</t>
+  </si>
+  <si>
+    <t>24KT03R108-0171</t>
+  </si>
+  <si>
+    <t>24KT03R108-0172</t>
+  </si>
+  <si>
+    <t>24KT07R108-0035</t>
+  </si>
+  <si>
+    <t>24MC41R108-0014</t>
+  </si>
+  <si>
+    <t>24KT03R108-0056</t>
+  </si>
+  <si>
+    <t>24KT07R108-0033</t>
+  </si>
+  <si>
+    <t>24KT02R159-0003</t>
+  </si>
+  <si>
+    <t>23KT07R159-0188</t>
+  </si>
+  <si>
+    <t>24KT08R159-0059</t>
+  </si>
+  <si>
+    <t>24KT08R159-0057</t>
+  </si>
+  <si>
+    <t>24KT08R159-0058</t>
+  </si>
+  <si>
+    <t>24KT07R159-0044</t>
+  </si>
+  <si>
+    <t>23KT07R159-0067</t>
+  </si>
+  <si>
+    <t>24KT07R159-0043</t>
+  </si>
+  <si>
+    <t>23KT07R159-0077</t>
+  </si>
+  <si>
+    <t>24KT07R159-0042</t>
+  </si>
+  <si>
+    <t>23KT05R428-0008</t>
+  </si>
+  <si>
+    <t>24MC41R427-0001</t>
+  </si>
+  <si>
+    <t>24KT03R409-0403</t>
+  </si>
+  <si>
+    <t>24MC41R427-0020</t>
+  </si>
+  <si>
+    <t>24MC41R427-0018</t>
+  </si>
+  <si>
+    <t>24KT03R409-0427</t>
+  </si>
+  <si>
+    <t>24MC41R427-0007</t>
+  </si>
+  <si>
+    <t>24MC41R427-0014</t>
+  </si>
+  <si>
+    <t>24MC41R427-0009</t>
+  </si>
+  <si>
+    <t>24MC41R427-0011</t>
+  </si>
+  <si>
+    <t>24MC41R427-0002</t>
+  </si>
+  <si>
+    <t>24MC41R427-0016</t>
+  </si>
+  <si>
+    <t>24MC16R534-0013</t>
+  </si>
+  <si>
+    <t>24MC16R534-0015</t>
+  </si>
+  <si>
+    <t>24KT07R534-0062</t>
+  </si>
+  <si>
+    <t>24MC41R534-0142</t>
+  </si>
+  <si>
+    <t>24MC41R426-0037</t>
+  </si>
+  <si>
+    <t>24MC41R426-0045</t>
+  </si>
+  <si>
+    <t>24KT03R536-0296</t>
+  </si>
+  <si>
+    <t>24KT03R536-0379</t>
+  </si>
+  <si>
+    <t>24KT03R536-0389</t>
+  </si>
+  <si>
+    <t>24KT03R536-0386</t>
+  </si>
+  <si>
+    <t>24KT03R536-0307</t>
+  </si>
+  <si>
+    <t>24KT03R536-0315</t>
+  </si>
+  <si>
+    <t>24KT03R536-0328</t>
+  </si>
+  <si>
+    <t>24KT03R536-0327</t>
+  </si>
+  <si>
+    <t>24KT03R536-0326</t>
+  </si>
+  <si>
+    <t>24KT03R536-0325</t>
+  </si>
+  <si>
+    <t>24KT03R536-0324</t>
+  </si>
+  <si>
+    <t>24KT03R536-0323</t>
+  </si>
+  <si>
+    <t>24KT03R536-0322</t>
+  </si>
+  <si>
+    <t>24KT03R536-0185</t>
+  </si>
+  <si>
+    <t>24KT03R536-0190</t>
+  </si>
+  <si>
+    <t>24KT03R536-0274</t>
+  </si>
+  <si>
+    <t>24KT03R536-0275</t>
+  </si>
+  <si>
+    <t>24KT03R536-0278</t>
+  </si>
+  <si>
+    <t>24KT03R536-0342</t>
+  </si>
+  <si>
+    <t>24KT03R536-0350</t>
+  </si>
+  <si>
+    <t>24KT03R536-0360</t>
+  </si>
+  <si>
+    <t>24KT03R536-0362</t>
+  </si>
+  <si>
+    <t>24KT07R536-0018</t>
+  </si>
+  <si>
+    <t>24KT08R536-0044</t>
+  </si>
+  <si>
+    <t>24KT03R536-0241</t>
+  </si>
+  <si>
+    <t>24KT03R536-0291</t>
+  </si>
+  <si>
+    <t>24KT03R536-0295</t>
+  </si>
+  <si>
+    <t>24KT03R536-0294</t>
+  </si>
+  <si>
+    <t>24KT03R536-0375</t>
+  </si>
+  <si>
+    <t>24KT03R536-0376</t>
+  </si>
+  <si>
+    <t>24KT03R529-0300</t>
+  </si>
+  <si>
+    <t>24KT03R529-0254</t>
+  </si>
+  <si>
+    <t>24KT03R529-0232</t>
+  </si>
+  <si>
+    <t>24KT03R529-0277</t>
+  </si>
+  <si>
+    <t>24KT05R529-0038</t>
+  </si>
+  <si>
+    <t>24KT05R529-0035</t>
+  </si>
+  <si>
+    <t>24KT05R529-0034</t>
+  </si>
+  <si>
+    <t>24KT03R529-0685</t>
+  </si>
+  <si>
+    <t>24KT03R529-0697</t>
+  </si>
+  <si>
+    <t>24KT03R529-0308</t>
+  </si>
+  <si>
+    <t>24KT03R529-0592</t>
+  </si>
+  <si>
+    <t>24KT03R529-0607</t>
+  </si>
+  <si>
+    <t>24KT03R529-0606</t>
+  </si>
+  <si>
+    <t>24KT03R529-0702</t>
+  </si>
+  <si>
+    <t>24KT03R529-0701</t>
+  </si>
+  <si>
+    <t>24KT03R529-0698</t>
+  </si>
+  <si>
+    <t>24MC16R529-0318</t>
+  </si>
+  <si>
+    <t>24KT03R529-0620</t>
+  </si>
+  <si>
+    <t>24KT03R529-0626</t>
+  </si>
+  <si>
+    <t>24KT03R529-0632</t>
+  </si>
+  <si>
+    <t>24KT03R529-0613</t>
+  </si>
+  <si>
+    <t>24MC16R529-0122</t>
+  </si>
+  <si>
+    <t>24MC14R529-0233</t>
+  </si>
+  <si>
+    <t>24KT05R529-0018</t>
+  </si>
+  <si>
+    <t>24MC16R529-0121</t>
+  </si>
+  <si>
+    <t>24MC16R529-0117</t>
+  </si>
+  <si>
+    <t>24KT05R529-0017</t>
+  </si>
+  <si>
+    <t>24KT05R529-0014</t>
+  </si>
+  <si>
+    <t>24KT05R529-0012</t>
+  </si>
+  <si>
+    <t>24KT05R529-0013</t>
+  </si>
+  <si>
+    <t>24KT02R529-0003</t>
+  </si>
+  <si>
+    <t>24KT02R529-0002</t>
+  </si>
+  <si>
+    <t>24KT02R529-0004</t>
+  </si>
+  <si>
+    <t>24KT05R529-0009</t>
+  </si>
+  <si>
+    <t>24KT05R529-0008</t>
+  </si>
+  <si>
+    <t>24KT03R529-0649</t>
+  </si>
+  <si>
+    <t>24KT05R529-0020</t>
+  </si>
+  <si>
+    <t>24KT05R529-0031</t>
+  </si>
+  <si>
+    <t>24KT03R529-0640</t>
+  </si>
+  <si>
+    <t>24KT05R529-0027</t>
+  </si>
+  <si>
+    <t>24KT05R529-0021</t>
+  </si>
+  <si>
+    <t>24KT05R529-0026</t>
+  </si>
+  <si>
+    <t>24KT05R529-0025</t>
+  </si>
+  <si>
+    <t>24KT03R529-0360</t>
+  </si>
+  <si>
+    <t>24KT03R529-0354</t>
+  </si>
+  <si>
+    <t>24KT03R529-0508</t>
+  </si>
+  <si>
+    <t>24KT03R529-0653</t>
+  </si>
+  <si>
+    <t>24KT03R529-0655</t>
+  </si>
+  <si>
+    <t>24KT05R529-0024</t>
+  </si>
+  <si>
+    <t>24KT05R529-0023</t>
+  </si>
+  <si>
+    <t>24MC16R529-0239</t>
+  </si>
+  <si>
+    <t>24MC16R529-0264</t>
+  </si>
+  <si>
+    <t>24MC16R529-0262</t>
+  </si>
+  <si>
+    <t>24MC16R529-0261</t>
+  </si>
+  <si>
+    <t>24KT08R529-0114</t>
+  </si>
+  <si>
+    <t>24KT03R529-0367</t>
+  </si>
+  <si>
+    <t>24KT03R529-0530</t>
+  </si>
+  <si>
+    <t>24MC16R529-0286</t>
+  </si>
+  <si>
+    <t>24MC16R529-0285</t>
+  </si>
+  <si>
+    <t>24KT03R529-0545</t>
+  </si>
+  <si>
+    <t>24KT03R529-0544</t>
+  </si>
+  <si>
+    <t>24MC16R529-0284</t>
+  </si>
+  <si>
+    <t>24MC16R529-0279</t>
+  </si>
+  <si>
+    <t>24KT03R529-0385</t>
+  </si>
+  <si>
+    <t>24KT03R529-0679</t>
+  </si>
+  <si>
+    <t>24MC16R529-0136</t>
+  </si>
+  <si>
+    <t>24KT07R529-0056</t>
+  </si>
+  <si>
+    <t>24KT03R529-0689</t>
+  </si>
+  <si>
+    <t>23MC41R531-0160</t>
+  </si>
+  <si>
+    <t>24MC41R531-0104</t>
+  </si>
+  <si>
+    <t>24MC41R531-0105</t>
+  </si>
+  <si>
+    <t>24MC41R531-0107</t>
+  </si>
+  <si>
+    <t>24MC41R531-0108</t>
+  </si>
+  <si>
+    <t>24MC41R531-0075</t>
+  </si>
+  <si>
+    <t>24MC41R531-0109</t>
+  </si>
+  <si>
+    <t>24MC41R531-0083</t>
+  </si>
+  <si>
+    <t>24MC41R531-0088</t>
+  </si>
+  <si>
+    <t>24KT03R752-0065</t>
+  </si>
+  <si>
+    <t>24KT07R546-0054</t>
+  </si>
+  <si>
+    <t>24KT03R547-0007</t>
+  </si>
+  <si>
+    <t>24KT03R547-0137</t>
+  </si>
+  <si>
+    <t>24KT07R547-0041</t>
+  </si>
+  <si>
+    <t>24KT03R547-0140</t>
+  </si>
+  <si>
+    <t>24KT03R753-0002</t>
+  </si>
+  <si>
+    <t>24KT07R547-0021</t>
+  </si>
+  <si>
+    <t>24KT07R547-0020</t>
+  </si>
+  <si>
+    <t>24KT07R547-0019</t>
+  </si>
+  <si>
+    <t>24KT03R547-0088</t>
+  </si>
+  <si>
+    <t>24KT03R547-0084</t>
+  </si>
+  <si>
+    <t>24KT07R547-0004</t>
+  </si>
+  <si>
+    <t>24KT07R547-0059</t>
+  </si>
+  <si>
+    <t>24KT03R547-0120</t>
+  </si>
+  <si>
+    <t>24KT03R547-0538</t>
+  </si>
+  <si>
+    <t>24KT07R547-0010</t>
+  </si>
+  <si>
+    <t>24KT03R547-0539</t>
+  </si>
+  <si>
+    <t>24KT03R547-0540</t>
+  </si>
+  <si>
+    <t>24KT03R547-0541</t>
+  </si>
+  <si>
+    <t>24KT03R547-0542</t>
+  </si>
+  <si>
+    <t>24KT08R753-0037</t>
+  </si>
+  <si>
+    <t>24KT07R753-0007</t>
+  </si>
+  <si>
+    <t>24KT08R753-0038</t>
+  </si>
+  <si>
+    <t>24KT07R753-0019</t>
+  </si>
+  <si>
+    <t>24KT08R753-0004</t>
+  </si>
+  <si>
+    <t>24MC14R755-0060</t>
+  </si>
+  <si>
+    <t>24MC14R755-0136</t>
+  </si>
+  <si>
+    <t>24KT03R755-0098</t>
+  </si>
+  <si>
+    <t>24KT03R749-0136</t>
   </si>
 </sst>
 </file>
@@ -1191,10 +2532,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D447"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="H451" sqref="D2:D447 H451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1219,6 +2560,3574 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" t="s">
+        <v>133</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" t="s">
+        <v>139</v>
+      </c>
+      <c r="D136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="B139" t="s">
+        <v>142</v>
+      </c>
+      <c r="D139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" t="s">
+        <v>143</v>
+      </c>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="B141" t="s">
+        <v>144</v>
+      </c>
+      <c r="D141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="B142" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
+      <c r="D143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" t="s">
+        <v>149</v>
+      </c>
+      <c r="D146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
+      <c r="D147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" t="s">
+        <v>153</v>
+      </c>
+      <c r="D150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" t="s">
+        <v>155</v>
+      </c>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" t="s">
+        <v>157</v>
+      </c>
+      <c r="D154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
+      <c r="D155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" t="s">
+        <v>159</v>
+      </c>
+      <c r="D156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4">
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
+      <c r="D157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="B158" t="s">
+        <v>161</v>
+      </c>
+      <c r="D158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" t="s">
+        <v>162</v>
+      </c>
+      <c r="D159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="B160" t="s">
+        <v>163</v>
+      </c>
+      <c r="D160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="B161" t="s">
+        <v>164</v>
+      </c>
+      <c r="D161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="B162" t="s">
+        <v>165</v>
+      </c>
+      <c r="D162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="B163" t="s">
+        <v>166</v>
+      </c>
+      <c r="D163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="B164" t="s">
+        <v>167</v>
+      </c>
+      <c r="D164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="B165" t="s">
+        <v>168</v>
+      </c>
+      <c r="D165" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="B166" t="s">
+        <v>169</v>
+      </c>
+      <c r="D166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="B167" t="s">
+        <v>170</v>
+      </c>
+      <c r="D167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4">
+      <c r="B168" t="s">
+        <v>171</v>
+      </c>
+      <c r="D168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4">
+      <c r="B169" t="s">
+        <v>172</v>
+      </c>
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4">
+      <c r="B170" t="s">
+        <v>173</v>
+      </c>
+      <c r="D170" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4">
+      <c r="B171" t="s">
+        <v>174</v>
+      </c>
+      <c r="D171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4">
+      <c r="B172" t="s">
+        <v>175</v>
+      </c>
+      <c r="D172" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="B173" t="s">
+        <v>176</v>
+      </c>
+      <c r="D173" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4">
+      <c r="B174" t="s">
+        <v>177</v>
+      </c>
+      <c r="D174" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="B175" t="s">
+        <v>178</v>
+      </c>
+      <c r="D175" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="B176" t="s">
+        <v>179</v>
+      </c>
+      <c r="D176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" t="s">
+        <v>180</v>
+      </c>
+      <c r="D177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4">
+      <c r="B178" t="s">
+        <v>181</v>
+      </c>
+      <c r="D178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" t="s">
+        <v>182</v>
+      </c>
+      <c r="D179" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" t="s">
+        <v>183</v>
+      </c>
+      <c r="D180" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" t="s">
+        <v>184</v>
+      </c>
+      <c r="D181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4">
+      <c r="B182" t="s">
+        <v>185</v>
+      </c>
+      <c r="D182" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4">
+      <c r="B183" t="s">
+        <v>186</v>
+      </c>
+      <c r="D183" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="B184" t="s">
+        <v>187</v>
+      </c>
+      <c r="D184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="B185" t="s">
+        <v>188</v>
+      </c>
+      <c r="D185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="B186" t="s">
+        <v>189</v>
+      </c>
+      <c r="D186" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4">
+      <c r="B187" t="s">
+        <v>190</v>
+      </c>
+      <c r="D187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4">
+      <c r="B188" t="s">
+        <v>191</v>
+      </c>
+      <c r="D188" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4">
+      <c r="B189" t="s">
+        <v>192</v>
+      </c>
+      <c r="D189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4">
+      <c r="B190" t="s">
+        <v>193</v>
+      </c>
+      <c r="D190" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4">
+      <c r="B191" t="s">
+        <v>194</v>
+      </c>
+      <c r="D191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4">
+      <c r="B192" t="s">
+        <v>195</v>
+      </c>
+      <c r="D192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4">
+      <c r="B193" t="s">
+        <v>196</v>
+      </c>
+      <c r="D193" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="B194" t="s">
+        <v>197</v>
+      </c>
+      <c r="D194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="B195" t="s">
+        <v>198</v>
+      </c>
+      <c r="D195" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4">
+      <c r="B196" t="s">
+        <v>199</v>
+      </c>
+      <c r="D196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4">
+      <c r="B197" t="s">
+        <v>200</v>
+      </c>
+      <c r="D197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4">
+      <c r="B198" t="s">
+        <v>201</v>
+      </c>
+      <c r="D198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4">
+      <c r="B199" t="s">
+        <v>202</v>
+      </c>
+      <c r="D199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4">
+      <c r="B200" t="s">
+        <v>203</v>
+      </c>
+      <c r="D200" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4">
+      <c r="B201" t="s">
+        <v>204</v>
+      </c>
+      <c r="D201" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="B202" t="s">
+        <v>205</v>
+      </c>
+      <c r="D202" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="B203" t="s">
+        <v>206</v>
+      </c>
+      <c r="D203" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4">
+      <c r="B204" t="s">
+        <v>207</v>
+      </c>
+      <c r="D204" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="B205" t="s">
+        <v>208</v>
+      </c>
+      <c r="D205" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="B206" t="s">
+        <v>209</v>
+      </c>
+      <c r="D206" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" t="s">
+        <v>210</v>
+      </c>
+      <c r="D207" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="B208" t="s">
+        <v>211</v>
+      </c>
+      <c r="D208" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4">
+      <c r="B209" t="s">
+        <v>212</v>
+      </c>
+      <c r="D209" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4">
+      <c r="B210" t="s">
+        <v>213</v>
+      </c>
+      <c r="D210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4">
+      <c r="B211" t="s">
+        <v>214</v>
+      </c>
+      <c r="D211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4">
+      <c r="B212" t="s">
+        <v>215</v>
+      </c>
+      <c r="D212" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4">
+      <c r="B213" t="s">
+        <v>216</v>
+      </c>
+      <c r="D213" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4">
+      <c r="B214" t="s">
+        <v>217</v>
+      </c>
+      <c r="D214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4">
+      <c r="B215" t="s">
+        <v>218</v>
+      </c>
+      <c r="D215" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4">
+      <c r="B216" t="s">
+        <v>219</v>
+      </c>
+      <c r="D216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4">
+      <c r="B217" t="s">
+        <v>220</v>
+      </c>
+      <c r="D217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4">
+      <c r="B218" t="s">
+        <v>221</v>
+      </c>
+      <c r="D218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4">
+      <c r="B219" t="s">
+        <v>222</v>
+      </c>
+      <c r="D219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4">
+      <c r="B220" t="s">
+        <v>223</v>
+      </c>
+      <c r="D220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4">
+      <c r="B221" t="s">
+        <v>224</v>
+      </c>
+      <c r="D221" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4">
+      <c r="B222" t="s">
+        <v>225</v>
+      </c>
+      <c r="D222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4">
+      <c r="B223" t="s">
+        <v>226</v>
+      </c>
+      <c r="D223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4">
+      <c r="B224" t="s">
+        <v>227</v>
+      </c>
+      <c r="D224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4">
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
+      <c r="D225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4">
+      <c r="B226" t="s">
+        <v>229</v>
+      </c>
+      <c r="D226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4">
+      <c r="B227" t="s">
+        <v>230</v>
+      </c>
+      <c r="D227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4">
+      <c r="B228" t="s">
+        <v>231</v>
+      </c>
+      <c r="D228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4">
+      <c r="B229" t="s">
+        <v>232</v>
+      </c>
+      <c r="D229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4">
+      <c r="B230" t="s">
+        <v>233</v>
+      </c>
+      <c r="D230" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4">
+      <c r="B231" t="s">
+        <v>234</v>
+      </c>
+      <c r="D231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4">
+      <c r="B232" t="s">
+        <v>235</v>
+      </c>
+      <c r="D232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4">
+      <c r="B233" t="s">
+        <v>236</v>
+      </c>
+      <c r="D233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4">
+      <c r="B234" t="s">
+        <v>237</v>
+      </c>
+      <c r="D234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4">
+      <c r="B235" t="s">
+        <v>238</v>
+      </c>
+      <c r="D235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4">
+      <c r="B236" t="s">
+        <v>239</v>
+      </c>
+      <c r="D236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4">
+      <c r="B237" t="s">
+        <v>240</v>
+      </c>
+      <c r="D237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4">
+      <c r="B238" t="s">
+        <v>241</v>
+      </c>
+      <c r="D238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4">
+      <c r="B239" t="s">
+        <v>242</v>
+      </c>
+      <c r="D239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4">
+      <c r="B240" t="s">
+        <v>243</v>
+      </c>
+      <c r="D240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4">
+      <c r="B241" t="s">
+        <v>244</v>
+      </c>
+      <c r="D241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4">
+      <c r="B242" t="s">
+        <v>245</v>
+      </c>
+      <c r="D242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4">
+      <c r="B243" t="s">
+        <v>246</v>
+      </c>
+      <c r="D243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4">
+      <c r="B244" t="s">
+        <v>247</v>
+      </c>
+      <c r="D244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4">
+      <c r="B245" t="s">
+        <v>248</v>
+      </c>
+      <c r="D245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4">
+      <c r="B246" t="s">
+        <v>249</v>
+      </c>
+      <c r="D246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4">
+      <c r="B247" t="s">
+        <v>250</v>
+      </c>
+      <c r="D247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4">
+      <c r="B248" t="s">
+        <v>251</v>
+      </c>
+      <c r="D248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4">
+      <c r="B249" t="s">
+        <v>252</v>
+      </c>
+      <c r="D249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4">
+      <c r="B250" t="s">
+        <v>253</v>
+      </c>
+      <c r="D250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4">
+      <c r="B251" t="s">
+        <v>254</v>
+      </c>
+      <c r="D251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4">
+      <c r="B252" t="s">
+        <v>255</v>
+      </c>
+      <c r="D252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4">
+      <c r="B253" t="s">
+        <v>256</v>
+      </c>
+      <c r="D253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4">
+      <c r="B254" t="s">
+        <v>257</v>
+      </c>
+      <c r="D254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4">
+      <c r="B255" t="s">
+        <v>258</v>
+      </c>
+      <c r="D255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4">
+      <c r="B256" t="s">
+        <v>259</v>
+      </c>
+      <c r="D256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4">
+      <c r="B257" t="s">
+        <v>260</v>
+      </c>
+      <c r="D257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4">
+      <c r="B258" t="s">
+        <v>261</v>
+      </c>
+      <c r="D258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4">
+      <c r="B259" t="s">
+        <v>262</v>
+      </c>
+      <c r="D259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4">
+      <c r="B260" t="s">
+        <v>263</v>
+      </c>
+      <c r="D260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4">
+      <c r="B261" t="s">
+        <v>264</v>
+      </c>
+      <c r="D261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4">
+      <c r="B262" t="s">
+        <v>265</v>
+      </c>
+      <c r="D262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4">
+      <c r="B263" t="s">
+        <v>266</v>
+      </c>
+      <c r="D263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4">
+      <c r="B264" t="s">
+        <v>267</v>
+      </c>
+      <c r="D264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4">
+      <c r="B265" t="s">
+        <v>268</v>
+      </c>
+      <c r="D265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4">
+      <c r="B266" t="s">
+        <v>269</v>
+      </c>
+      <c r="D266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4">
+      <c r="B267" t="s">
+        <v>270</v>
+      </c>
+      <c r="D267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4">
+      <c r="B268" t="s">
+        <v>271</v>
+      </c>
+      <c r="D268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4">
+      <c r="B269" t="s">
+        <v>272</v>
+      </c>
+      <c r="D269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4">
+      <c r="B270" t="s">
+        <v>273</v>
+      </c>
+      <c r="D270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4">
+      <c r="B271" t="s">
+        <v>274</v>
+      </c>
+      <c r="D271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4">
+      <c r="B272" t="s">
+        <v>275</v>
+      </c>
+      <c r="D272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4">
+      <c r="B273" t="s">
+        <v>276</v>
+      </c>
+      <c r="D273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4">
+      <c r="B274" t="s">
+        <v>277</v>
+      </c>
+      <c r="D274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4">
+      <c r="B275" t="s">
+        <v>278</v>
+      </c>
+      <c r="D275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4">
+      <c r="B276" t="s">
+        <v>279</v>
+      </c>
+      <c r="D276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4">
+      <c r="B277" t="s">
+        <v>280</v>
+      </c>
+      <c r="D277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4">
+      <c r="B278" t="s">
+        <v>281</v>
+      </c>
+      <c r="D278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4">
+      <c r="B279" t="s">
+        <v>282</v>
+      </c>
+      <c r="D279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4">
+      <c r="B280" t="s">
+        <v>283</v>
+      </c>
+      <c r="D280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4">
+      <c r="B281" t="s">
+        <v>284</v>
+      </c>
+      <c r="D281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4">
+      <c r="B282" t="s">
+        <v>285</v>
+      </c>
+      <c r="D282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4">
+      <c r="B283" t="s">
+        <v>286</v>
+      </c>
+      <c r="D283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4">
+      <c r="B284" t="s">
+        <v>287</v>
+      </c>
+      <c r="D284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4">
+      <c r="B285" t="s">
+        <v>288</v>
+      </c>
+      <c r="D285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4">
+      <c r="B286" t="s">
+        <v>289</v>
+      </c>
+      <c r="D286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4">
+      <c r="B287" t="s">
+        <v>290</v>
+      </c>
+      <c r="D287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4">
+      <c r="B288" t="s">
+        <v>291</v>
+      </c>
+      <c r="D288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4">
+      <c r="B289" t="s">
+        <v>292</v>
+      </c>
+      <c r="D289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4">
+      <c r="B290" t="s">
+        <v>293</v>
+      </c>
+      <c r="D290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4">
+      <c r="B291" t="s">
+        <v>294</v>
+      </c>
+      <c r="D291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4">
+      <c r="B292" t="s">
+        <v>295</v>
+      </c>
+      <c r="D292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4">
+      <c r="B293" t="s">
+        <v>296</v>
+      </c>
+      <c r="D293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4">
+      <c r="B294" t="s">
+        <v>297</v>
+      </c>
+      <c r="D294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4">
+      <c r="B295" t="s">
+        <v>298</v>
+      </c>
+      <c r="D295" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4">
+      <c r="B296" t="s">
+        <v>299</v>
+      </c>
+      <c r="D296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4">
+      <c r="B297" t="s">
+        <v>300</v>
+      </c>
+      <c r="D297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4">
+      <c r="B298" t="s">
+        <v>301</v>
+      </c>
+      <c r="D298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4">
+      <c r="B299" t="s">
+        <v>302</v>
+      </c>
+      <c r="D299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4">
+      <c r="B300" t="s">
+        <v>303</v>
+      </c>
+      <c r="D300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4">
+      <c r="B301" t="s">
+        <v>304</v>
+      </c>
+      <c r="D301" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4">
+      <c r="B302" t="s">
+        <v>305</v>
+      </c>
+      <c r="D302" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4">
+      <c r="B303" t="s">
+        <v>306</v>
+      </c>
+      <c r="D303" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4">
+      <c r="B304" t="s">
+        <v>307</v>
+      </c>
+      <c r="D304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4">
+      <c r="B305" t="s">
+        <v>308</v>
+      </c>
+      <c r="D305" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4">
+      <c r="B306" t="s">
+        <v>309</v>
+      </c>
+      <c r="D306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4">
+      <c r="B307" t="s">
+        <v>310</v>
+      </c>
+      <c r="D307" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4">
+      <c r="B308" t="s">
+        <v>311</v>
+      </c>
+      <c r="D308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4">
+      <c r="B309" t="s">
+        <v>312</v>
+      </c>
+      <c r="D309" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4">
+      <c r="B310" t="s">
+        <v>313</v>
+      </c>
+      <c r="D310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4">
+      <c r="B311" t="s">
+        <v>314</v>
+      </c>
+      <c r="D311" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4">
+      <c r="B312" t="s">
+        <v>315</v>
+      </c>
+      <c r="D312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4">
+      <c r="B313" t="s">
+        <v>316</v>
+      </c>
+      <c r="D313" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4">
+      <c r="B314" t="s">
+        <v>317</v>
+      </c>
+      <c r="D314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4">
+      <c r="B315" t="s">
+        <v>318</v>
+      </c>
+      <c r="D315" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4">
+      <c r="B316" t="s">
+        <v>319</v>
+      </c>
+      <c r="D316" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4">
+      <c r="B317" t="s">
+        <v>320</v>
+      </c>
+      <c r="D317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4">
+      <c r="B318" t="s">
+        <v>321</v>
+      </c>
+      <c r="D318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4">
+      <c r="B319" t="s">
+        <v>322</v>
+      </c>
+      <c r="D319" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4">
+      <c r="B320" t="s">
+        <v>323</v>
+      </c>
+      <c r="D320" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4">
+      <c r="B321" t="s">
+        <v>324</v>
+      </c>
+      <c r="D321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4">
+      <c r="B322" t="s">
+        <v>325</v>
+      </c>
+      <c r="D322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4">
+      <c r="B323" t="s">
+        <v>326</v>
+      </c>
+      <c r="D323" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4">
+      <c r="B324" t="s">
+        <v>327</v>
+      </c>
+      <c r="D324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4">
+      <c r="B325" t="s">
+        <v>328</v>
+      </c>
+      <c r="D325" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4">
+      <c r="B326" t="s">
+        <v>329</v>
+      </c>
+      <c r="D326" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4">
+      <c r="B327" t="s">
+        <v>330</v>
+      </c>
+      <c r="D327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4">
+      <c r="B328" t="s">
+        <v>331</v>
+      </c>
+      <c r="D328" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4">
+      <c r="B329" t="s">
+        <v>332</v>
+      </c>
+      <c r="D329" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4">
+      <c r="B330" t="s">
+        <v>333</v>
+      </c>
+      <c r="D330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4">
+      <c r="B331" t="s">
+        <v>334</v>
+      </c>
+      <c r="D331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4">
+      <c r="B332" t="s">
+        <v>335</v>
+      </c>
+      <c r="D332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4">
+      <c r="B333" t="s">
+        <v>336</v>
+      </c>
+      <c r="D333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4">
+      <c r="B334" t="s">
+        <v>337</v>
+      </c>
+      <c r="D334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4">
+      <c r="B335" t="s">
+        <v>338</v>
+      </c>
+      <c r="D335" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4">
+      <c r="B336" t="s">
+        <v>339</v>
+      </c>
+      <c r="D336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4">
+      <c r="B337" t="s">
+        <v>340</v>
+      </c>
+      <c r="D337" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4">
+      <c r="B338" t="s">
+        <v>341</v>
+      </c>
+      <c r="D338" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4">
+      <c r="B339" t="s">
+        <v>342</v>
+      </c>
+      <c r="D339" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4">
+      <c r="B340" t="s">
+        <v>343</v>
+      </c>
+      <c r="D340" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4">
+      <c r="B341" t="s">
+        <v>344</v>
+      </c>
+      <c r="D341" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4">
+      <c r="B342" t="s">
+        <v>345</v>
+      </c>
+      <c r="D342" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4">
+      <c r="B343" t="s">
+        <v>346</v>
+      </c>
+      <c r="D343" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4">
+      <c r="B344" t="s">
+        <v>347</v>
+      </c>
+      <c r="D344" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4">
+      <c r="B345" t="s">
+        <v>348</v>
+      </c>
+      <c r="D345" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4">
+      <c r="B346" t="s">
+        <v>349</v>
+      </c>
+      <c r="D346" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4">
+      <c r="B347" t="s">
+        <v>350</v>
+      </c>
+      <c r="D347" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4">
+      <c r="B348" t="s">
+        <v>351</v>
+      </c>
+      <c r="D348" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4">
+      <c r="B349" t="s">
+        <v>352</v>
+      </c>
+      <c r="D349" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4">
+      <c r="B350" t="s">
+        <v>353</v>
+      </c>
+      <c r="D350" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4">
+      <c r="B351" t="s">
+        <v>354</v>
+      </c>
+      <c r="D351" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4">
+      <c r="B352" t="s">
+        <v>355</v>
+      </c>
+      <c r="D352" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4">
+      <c r="B353" t="s">
+        <v>356</v>
+      </c>
+      <c r="D353" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4">
+      <c r="B354" t="s">
+        <v>357</v>
+      </c>
+      <c r="D354" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4">
+      <c r="B355" t="s">
+        <v>358</v>
+      </c>
+      <c r="D355" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4">
+      <c r="B356" t="s">
+        <v>359</v>
+      </c>
+      <c r="D356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4">
+      <c r="B357" t="s">
+        <v>360</v>
+      </c>
+      <c r="D357" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="2:4">
+      <c r="B358" t="s">
+        <v>361</v>
+      </c>
+      <c r="D358" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4">
+      <c r="B359" t="s">
+        <v>362</v>
+      </c>
+      <c r="D359" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4">
+      <c r="B360" t="s">
+        <v>363</v>
+      </c>
+      <c r="D360" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4">
+      <c r="B361" t="s">
+        <v>364</v>
+      </c>
+      <c r="D361" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4">
+      <c r="B362" t="s">
+        <v>365</v>
+      </c>
+      <c r="D362" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4">
+      <c r="B363" t="s">
+        <v>366</v>
+      </c>
+      <c r="D363" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4">
+      <c r="B364" t="s">
+        <v>367</v>
+      </c>
+      <c r="D364" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="2:4">
+      <c r="B365" t="s">
+        <v>368</v>
+      </c>
+      <c r="D365" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4">
+      <c r="B366" t="s">
+        <v>369</v>
+      </c>
+      <c r="D366" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="2:4">
+      <c r="B367" t="s">
+        <v>370</v>
+      </c>
+      <c r="D367" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="2:4">
+      <c r="B368" t="s">
+        <v>371</v>
+      </c>
+      <c r="D368" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4">
+      <c r="B369" t="s">
+        <v>372</v>
+      </c>
+      <c r="D369" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4">
+      <c r="B370" t="s">
+        <v>373</v>
+      </c>
+      <c r="D370" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4">
+      <c r="B371" t="s">
+        <v>374</v>
+      </c>
+      <c r="D371" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4">
+      <c r="B372" t="s">
+        <v>375</v>
+      </c>
+      <c r="D372" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4">
+      <c r="B373" t="s">
+        <v>376</v>
+      </c>
+      <c r="D373" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4">
+      <c r="B374" t="s">
+        <v>377</v>
+      </c>
+      <c r="D374" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4">
+      <c r="B375" t="s">
+        <v>378</v>
+      </c>
+      <c r="D375" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4">
+      <c r="B376" t="s">
+        <v>379</v>
+      </c>
+      <c r="D376" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4">
+      <c r="B377" t="s">
+        <v>380</v>
+      </c>
+      <c r="D377" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4">
+      <c r="B378" t="s">
+        <v>381</v>
+      </c>
+      <c r="D378" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4">
+      <c r="B379" t="s">
+        <v>382</v>
+      </c>
+      <c r="D379" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4">
+      <c r="B380" t="s">
+        <v>383</v>
+      </c>
+      <c r="D380" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4">
+      <c r="B381" t="s">
+        <v>384</v>
+      </c>
+      <c r="D381" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4">
+      <c r="B382" t="s">
+        <v>385</v>
+      </c>
+      <c r="D382" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4">
+      <c r="B383" t="s">
+        <v>386</v>
+      </c>
+      <c r="D383" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4">
+      <c r="B384" t="s">
+        <v>387</v>
+      </c>
+      <c r="D384" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4">
+      <c r="B385" t="s">
+        <v>388</v>
+      </c>
+      <c r="D385" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4">
+      <c r="B386" t="s">
+        <v>389</v>
+      </c>
+      <c r="D386" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4">
+      <c r="B387" t="s">
+        <v>390</v>
+      </c>
+      <c r="D387" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4">
+      <c r="B388" t="s">
+        <v>391</v>
+      </c>
+      <c r="D388" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4">
+      <c r="B389" t="s">
+        <v>392</v>
+      </c>
+      <c r="D389" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4">
+      <c r="B390" t="s">
+        <v>393</v>
+      </c>
+      <c r="D390" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4">
+      <c r="B391" t="s">
+        <v>394</v>
+      </c>
+      <c r="D391" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="2:4">
+      <c r="B392" t="s">
+        <v>395</v>
+      </c>
+      <c r="D392" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4">
+      <c r="B393" t="s">
+        <v>396</v>
+      </c>
+      <c r="D393" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4">
+      <c r="B394" t="s">
+        <v>397</v>
+      </c>
+      <c r="D394" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4">
+      <c r="B395" t="s">
+        <v>398</v>
+      </c>
+      <c r="D395" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4">
+      <c r="B396" t="s">
+        <v>399</v>
+      </c>
+      <c r="D396" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4">
+      <c r="B397" t="s">
+        <v>400</v>
+      </c>
+      <c r="D397" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4">
+      <c r="B398" t="s">
+        <v>401</v>
+      </c>
+      <c r="D398" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4">
+      <c r="B399" t="s">
+        <v>402</v>
+      </c>
+      <c r="D399" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4">
+      <c r="B400" t="s">
+        <v>403</v>
+      </c>
+      <c r="D400" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4">
+      <c r="B401" t="s">
+        <v>404</v>
+      </c>
+      <c r="D401" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4">
+      <c r="B402" t="s">
+        <v>405</v>
+      </c>
+      <c r="D402" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4">
+      <c r="B403" t="s">
+        <v>406</v>
+      </c>
+      <c r="D403" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4">
+      <c r="B404" t="s">
+        <v>407</v>
+      </c>
+      <c r="D404" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4">
+      <c r="B405" t="s">
+        <v>408</v>
+      </c>
+      <c r="D405" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4">
+      <c r="B406" t="s">
+        <v>409</v>
+      </c>
+      <c r="D406" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4">
+      <c r="B407" t="s">
+        <v>410</v>
+      </c>
+      <c r="D407" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4">
+      <c r="B408" t="s">
+        <v>411</v>
+      </c>
+      <c r="D408" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4">
+      <c r="B409" t="s">
+        <v>412</v>
+      </c>
+      <c r="D409" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4">
+      <c r="B410" t="s">
+        <v>413</v>
+      </c>
+      <c r="D410" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="2:4">
+      <c r="B411" t="s">
+        <v>414</v>
+      </c>
+      <c r="D411" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4">
+      <c r="B412" t="s">
+        <v>415</v>
+      </c>
+      <c r="D412" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4">
+      <c r="B413" t="s">
+        <v>416</v>
+      </c>
+      <c r="D413" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="2:4">
+      <c r="B414" t="s">
+        <v>417</v>
+      </c>
+      <c r="D414" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4">
+      <c r="B415" t="s">
+        <v>418</v>
+      </c>
+      <c r="D415" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4">
+      <c r="B416" t="s">
+        <v>419</v>
+      </c>
+      <c r="D416" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4">
+      <c r="B417" t="s">
+        <v>420</v>
+      </c>
+      <c r="D417" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4">
+      <c r="B418" t="s">
+        <v>421</v>
+      </c>
+      <c r="D418" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4">
+      <c r="B419" t="s">
+        <v>422</v>
+      </c>
+      <c r="D419" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4">
+      <c r="B420" t="s">
+        <v>423</v>
+      </c>
+      <c r="D420" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4">
+      <c r="B421" t="s">
+        <v>424</v>
+      </c>
+      <c r="D421" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4">
+      <c r="B422" t="s">
+        <v>425</v>
+      </c>
+      <c r="D422" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4">
+      <c r="B423" t="s">
+        <v>426</v>
+      </c>
+      <c r="D423" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4">
+      <c r="B424" t="s">
+        <v>427</v>
+      </c>
+      <c r="D424" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4">
+      <c r="B425" t="s">
+        <v>428</v>
+      </c>
+      <c r="D425" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4">
+      <c r="B426" t="s">
+        <v>429</v>
+      </c>
+      <c r="D426" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="2:4">
+      <c r="B427" t="s">
+        <v>430</v>
+      </c>
+      <c r="D427" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4">
+      <c r="B428" t="s">
+        <v>431</v>
+      </c>
+      <c r="D428" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="2:4">
+      <c r="B429" t="s">
+        <v>432</v>
+      </c>
+      <c r="D429" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4">
+      <c r="B430" t="s">
+        <v>433</v>
+      </c>
+      <c r="D430" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4">
+      <c r="B431" t="s">
+        <v>434</v>
+      </c>
+      <c r="D431" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4">
+      <c r="B432" t="s">
+        <v>435</v>
+      </c>
+      <c r="D432" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433" spans="2:4">
+      <c r="B433" t="s">
+        <v>436</v>
+      </c>
+      <c r="D433" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434" spans="2:4">
+      <c r="B434" t="s">
+        <v>437</v>
+      </c>
+      <c r="D434" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435" spans="2:4">
+      <c r="B435" t="s">
+        <v>438</v>
+      </c>
+      <c r="D435" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436" spans="2:4">
+      <c r="B436" t="s">
+        <v>439</v>
+      </c>
+      <c r="D436" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="2:4">
+      <c r="B437" t="s">
+        <v>440</v>
+      </c>
+      <c r="D437" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438" spans="2:4">
+      <c r="B438" t="s">
+        <v>441</v>
+      </c>
+      <c r="D438" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="2:4">
+      <c r="B439" t="s">
+        <v>442</v>
+      </c>
+      <c r="D439" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440" spans="2:4">
+      <c r="B440" t="s">
+        <v>443</v>
+      </c>
+      <c r="D440" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441" spans="2:4">
+      <c r="B441" t="s">
+        <v>444</v>
+      </c>
+      <c r="D441" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="2:4">
+      <c r="B442" t="s">
+        <v>445</v>
+      </c>
+      <c r="D442" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="2:4">
+      <c r="B443" t="s">
+        <v>446</v>
+      </c>
+      <c r="D443" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="2:4">
+      <c r="B444" t="s">
+        <v>447</v>
+      </c>
+      <c r="D444" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="2:4">
+      <c r="B445" t="s">
+        <v>448</v>
+      </c>
+      <c r="D445" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446" spans="2:4">
+      <c r="B446" t="s">
+        <v>449</v>
+      </c>
+      <c r="D446" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="2:4">
+      <c r="B447" t="s">
+        <v>450</v>
+      </c>
+      <c r="D447" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
